--- a/Milestone3/Simulation_Block_Times.xlsx
+++ b/Milestone3/Simulation_Block_Times.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\PycharmProjects\SYSC4005AProject\Milestone3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F875EB-C8CE-4C51-BA7C-2B2A13836DD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Total Blocked Time</t>
-  </si>
-  <si>
-    <t>RunTime</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,132 +420,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Blocked Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>RunTime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>704.95786207993297</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" t="n">
+        <v>7686.089892869873</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>669.81553119234036</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>8223.890926475577</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>801.93982923723968</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" t="n">
+        <v>6918.094378181019</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>736.36409007197449</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" t="n">
+        <v>7249.437456189775</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>362.53319672346009</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" t="n">
+        <v>8255.951974392632</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>703.86674782859427</v>
-      </c>
-      <c r="C7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" t="n">
+        <v>7644.914357743756</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>598.01165631217305</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" t="n">
+        <v>7789.239083956972</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>583.68905194685817</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" t="n">
+        <v>7795.076074381132</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>798.66749803731079</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" t="n">
+        <v>7799.826255231952</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>450.51389813284271</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
+      <c r="B11" t="n">
+        <v>8103.471290684578</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Milestone3/Simulation_Block_Times.xlsx
+++ b/Milestone3/Simulation_Block_Times.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Replica</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Total Blocked Time</t>
@@ -446,113 +451,165 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7686.089892869873</v>
+        <v>720.89096481305</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8223.890926475577</v>
+        <v>693.8918246384528</v>
       </c>
       <c r="C3" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6918.094378181019</v>
+        <v>568.3456249700383</v>
       </c>
       <c r="C4" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7249.437456189775</v>
+        <v>588.821762045515</v>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8255.951974392632</v>
+        <v>502.5462671446322</v>
       </c>
       <c r="C6" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7644.914357743756</v>
+        <v>596.9695308925</v>
       </c>
       <c r="C7" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7789.239083956972</v>
+        <v>658.0856624746925</v>
       </c>
       <c r="C8" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7795.076074381132</v>
+        <v>469.8928427365696</v>
       </c>
       <c r="C9" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7799.826255231952</v>
+        <v>459.9518533582597</v>
       </c>
       <c r="C10" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8103.471290684578</v>
+        <v>371.2515218073468</v>
       </c>
       <c r="C11" t="n">
-        <v>10000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Average:</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>563.0647854881056</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Std:</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>106.1427019908901</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CI:</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>488.2142344371641</v>
+      </c>
+      <c r="C14" t="n">
+        <v>637.9153365390471</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PI:</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>291.5080832448424</v>
+      </c>
+      <c r="C15" t="n">
+        <v>834.6214877313688</v>
       </c>
     </row>
   </sheetData>

--- a/Milestone3/Simulation_Block_Times.xlsx
+++ b/Milestone3/Simulation_Block_Times.xlsx
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -455,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>720.89096481305</v>
+        <v>634.9166434544533</v>
       </c>
       <c r="C2" t="n">
         <v>1000</v>
@@ -466,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>693.8918246384528</v>
+        <v>614.9545058754336</v>
       </c>
       <c r="C3" t="n">
         <v>1000</v>
@@ -477,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>568.3456249700383</v>
+        <v>842.4880978091899</v>
       </c>
       <c r="C4" t="n">
         <v>1000</v>
@@ -488,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>588.821762045515</v>
+        <v>578.5199252751462</v>
       </c>
       <c r="C5" t="n">
         <v>1000</v>
@@ -499,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>502.5462671446322</v>
+        <v>760.0151767780051</v>
       </c>
       <c r="C6" t="n">
         <v>1000</v>
@@ -510,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>596.9695308925</v>
+        <v>464.093187734979</v>
       </c>
       <c r="C7" t="n">
         <v>1000</v>
@@ -521,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>658.0856624746925</v>
+        <v>481.1182721311537</v>
       </c>
       <c r="C8" t="n">
         <v>1000</v>
@@ -532,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>469.8928427365696</v>
+        <v>582.6361525205315</v>
       </c>
       <c r="C9" t="n">
         <v>1000</v>
@@ -543,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>459.9518533582597</v>
+        <v>407.44587207249</v>
       </c>
       <c r="C10" t="n">
         <v>1000</v>
@@ -554,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>371.2515218073468</v>
+        <v>774.6100319958024</v>
       </c>
       <c r="C11" t="n">
         <v>1000</v>
@@ -567,7 +568,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.0647854881056</v>
+        <v>614.0797865647185</v>
       </c>
       <c r="C12" t="n">
         <v>1000</v>
@@ -580,7 +581,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.1427019908901</v>
+        <v>135.9403982720132</v>
       </c>
       <c r="C13" t="n">
         <v>1000</v>
@@ -589,27 +590,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CI:</t>
+          <t>CI:+-95.864</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>488.2142344371641</v>
+        <v>518.2162601056131</v>
       </c>
       <c r="C14" t="n">
-        <v>637.9153365390471</v>
+        <v>709.9433130238239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PI:</t>
+          <t>PI:+-347.791</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>291.5080832448424</v>
+        <v>266.2883174955399</v>
       </c>
       <c r="C15" t="n">
-        <v>834.6214877313688</v>
+        <v>961.871255633897</v>
       </c>
     </row>
   </sheetData>

--- a/Milestone3/Simulation_Block_Times.xlsx
+++ b/Milestone3/Simulation_Block_Times.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Replica</t>
+  </si>
+  <si>
+    <t>Total Blocked Time</t>
+  </si>
+  <si>
+    <t>RunTime</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +63,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +82,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -421,199 +379,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Replica</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Blocked Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RunTime</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>634.9166434544533</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>676.0908852778143</v>
+      </c>
+      <c r="C2">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>614.9545058754336</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>842.4880978091899</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>578.5199252751462</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>760.0151767780051</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>464.093187734979</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>481.1182721311537</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>582.6361525205315</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>407.44587207249</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>774.6100319958024</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average:</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>614.0797865647185</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Std:</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>135.9403982720132</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CI:+-95.864</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>518.2162601056131</v>
-      </c>
-      <c r="C14" t="n">
-        <v>709.9433130238239</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PI:+-347.791</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>266.2883174955399</v>
-      </c>
-      <c r="C15" t="n">
-        <v>961.871255633897</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Milestone3/Simulation_Block_Times.xlsx
+++ b/Milestone3/Simulation_Block_Times.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Replica</t>
-  </si>
-  <si>
-    <t>Total Blocked Time</t>
-  </si>
-  <si>
-    <t>RunTime</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -82,16 +57,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -379,36 +421,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Replica</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Blocked Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>14401.0397876705</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>676.0908852778143</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
+      <c r="B3" t="n">
+        <v>15070.17160074732</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14007.27044247467</v>
+      </c>
+      <c r="C4" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15354.43088246134</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14690.67231484148</v>
+      </c>
+      <c r="C6" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14173.97187085845</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14998.12074504855</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13843.45484051684</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14722.74022982653</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13990.27361597005</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Average:</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14525.21463304157</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Std:</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>493.2165693463755</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CI:+-352.489</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>14172.7252040572</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14877.70406202595</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PI:+-1278.826</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>13246.38815058237</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15804.04111550078</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Milestone3/Simulation_Block_Times.xlsx
+++ b/Milestone3/Simulation_Block_Times.xlsx
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14401.0397876705</v>
+        <v>15155.3742670287</v>
       </c>
       <c r="C2" t="n">
         <v>18000</v>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15070.17160074732</v>
+        <v>13788.03884831192</v>
       </c>
       <c r="C3" t="n">
         <v>18000</v>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14007.27044247467</v>
+        <v>14175.29203628009</v>
       </c>
       <c r="C4" t="n">
         <v>18000</v>
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15354.43088246134</v>
+        <v>14431.85548558325</v>
       </c>
       <c r="C5" t="n">
         <v>18000</v>
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14690.67231484148</v>
+        <v>14862.57448347423</v>
       </c>
       <c r="C6" t="n">
         <v>18000</v>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14173.97187085845</v>
+        <v>14824.66855059927</v>
       </c>
       <c r="C7" t="n">
         <v>18000</v>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14998.12074504855</v>
+        <v>13978.13367906495</v>
       </c>
       <c r="C8" t="n">
         <v>18000</v>
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13843.45484051684</v>
+        <v>14148.75729798513</v>
       </c>
       <c r="C9" t="n">
         <v>18000</v>
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14722.74022982653</v>
+        <v>14441.8629206074</v>
       </c>
       <c r="C10" t="n">
         <v>18000</v>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13990.27361597005</v>
+        <v>13927.29237507199</v>
       </c>
       <c r="C11" t="n">
         <v>18000</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14525.21463304157</v>
+        <v>14373.38499440069</v>
       </c>
       <c r="C12" t="n">
         <v>20000</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.2165693463755</v>
+        <v>430.1312836363267</v>
       </c>
       <c r="C13" t="n">
         <v>20000</v>
@@ -590,27 +590,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CI:+-352.489</t>
+          <t>CI:+-307.404</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14172.7252040572</v>
+        <v>14065.9810262854</v>
       </c>
       <c r="C14" t="n">
-        <v>14877.70406202595</v>
+        <v>14680.78896251598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PI:+-1278.826</t>
+          <t>PI:+-1115.257</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13246.38815058237</v>
+        <v>13258.12790322619</v>
       </c>
       <c r="C15" t="n">
-        <v>15804.04111550078</v>
+        <v>15488.64208557519</v>
       </c>
     </row>
   </sheetData>
